--- a/Output/Classifier Fitting/SVM/Individual_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/SVM/Individual_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457.6949567755063</v>
+        <v>96.81925565401713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07624437061061241</v>
+        <v>0.01612847836981795</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9990004997501249</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5797078823202886</v>
+        <v>0.7706115736885929</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Fitting/SVM/Individual_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/SVM/Individual_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>96.81925565401713</v>
+        <v>226.0315134763718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01612847836981795</v>
+        <v>0.03765309236654536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9990004997501249</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7706115736885929</v>
+        <v>0.8062611712461838</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Fitting/SVM/Individual_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/SVM/Individual_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>226.0315134763718</v>
+        <v>52.47249424060185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03765309236654536</v>
+        <v>0.008741045184174888</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9631850741296019</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8062611712461838</v>
+        <v>0.9048809325562031</v>
       </c>
     </row>
   </sheetData>
